--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
 </workbook>
 </file>
 
@@ -519,12 +519,6 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
-    <t>heat and power co-generation, biogas, gas engine</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
     <t>Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
@@ -532,6 +526,12 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, natural gas, 500kW electrical, lean burn</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4870,7 +4870,7 @@
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4976,7 +4976,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -4995,7 +4995,7 @@
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5190,7 +5190,7 @@
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
@@ -5338,7 +5338,7 @@
     </row>
     <row r="198" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5362,7 +5362,7 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
@@ -5454,7 +5454,7 @@
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
